--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -37,154 +37,154 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
-    <t>2022-01'</t>
-  </si>
-  <si>
-    <t>2022-02'</t>
-  </si>
-  <si>
-    <t>2022-03'</t>
-  </si>
-  <si>
-    <t>2022-04'</t>
-  </si>
-  <si>
-    <t>2022-05'</t>
-  </si>
-  <si>
-    <t>2022-06'</t>
-  </si>
-  <si>
-    <t>2022-07'</t>
-  </si>
-  <si>
-    <t>2022-08'</t>
-  </si>
-  <si>
-    <t>2022-09'</t>
-  </si>
-  <si>
-    <t>2022-10'</t>
-  </si>
-  <si>
-    <t>2022-11'</t>
-  </si>
-  <si>
-    <t>2022-12'</t>
-  </si>
-  <si>
-    <t>2021-12'</t>
-  </si>
-  <si>
-    <t>2021-11'</t>
-  </si>
-  <si>
-    <t>2021-10'</t>
-  </si>
-  <si>
-    <t>2021-09'</t>
-  </si>
-  <si>
-    <t>2021-08'</t>
-  </si>
-  <si>
-    <t>2021-07'</t>
-  </si>
-  <si>
-    <t>2021-06'</t>
-  </si>
-  <si>
-    <t>2021-05'</t>
-  </si>
-  <si>
-    <t>2021-04'</t>
-  </si>
-  <si>
-    <t>2021-03'</t>
-  </si>
-  <si>
-    <t>2021-02'</t>
-  </si>
-  <si>
-    <t>2021-01'</t>
-  </si>
-  <si>
-    <t>2020-12'</t>
-  </si>
-  <si>
-    <t>2020-11'</t>
-  </si>
-  <si>
-    <t>2020-10'</t>
-  </si>
-  <si>
-    <t>2020-09'</t>
-  </si>
-  <si>
-    <t>2020-08'</t>
-  </si>
-  <si>
-    <t>2020-07'</t>
-  </si>
-  <si>
-    <t>2020-06'</t>
-  </si>
-  <si>
-    <t>2020-05'</t>
-  </si>
-  <si>
-    <t>2020-04'</t>
-  </si>
-  <si>
-    <t>2020-03'</t>
-  </si>
-  <si>
-    <t>2020-02'</t>
-  </si>
-  <si>
-    <t>2020-01'</t>
-  </si>
-  <si>
-    <t>2019-12'</t>
-  </si>
-  <si>
-    <t>2019-11'</t>
-  </si>
-  <si>
-    <t>2019-10'</t>
-  </si>
-  <si>
-    <t>2019-09'</t>
-  </si>
-  <si>
-    <t>2019-08'</t>
-  </si>
-  <si>
-    <t>2019-07'</t>
-  </si>
-  <si>
-    <t>2019-06'</t>
-  </si>
-  <si>
-    <t>2019-05'</t>
-  </si>
-  <si>
-    <t>2019-04'</t>
-  </si>
-  <si>
-    <t>2019-03'</t>
-  </si>
-  <si>
-    <t>2019-02'</t>
-  </si>
-  <si>
-    <t>2019-01'</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>2019-01-31'</t>
+  </si>
+  <si>
+    <t>2019-02-31'</t>
+  </si>
+  <si>
+    <t>2019-03-31'</t>
+  </si>
+  <si>
+    <t>2019-04-31'</t>
+  </si>
+  <si>
+    <t>2019-05-31'</t>
+  </si>
+  <si>
+    <t>2019-06-31'</t>
+  </si>
+  <si>
+    <t>2019-07-31'</t>
+  </si>
+  <si>
+    <t>2019-08-31'</t>
+  </si>
+  <si>
+    <t>2019-09-31'</t>
+  </si>
+  <si>
+    <t>2019-10-31'</t>
+  </si>
+  <si>
+    <t>2019-11-31'</t>
+  </si>
+  <si>
+    <t>2019-12-31'</t>
+  </si>
+  <si>
+    <t>2020-01-31'</t>
+  </si>
+  <si>
+    <t>2020-02-31'</t>
+  </si>
+  <si>
+    <t>2020-03-31'</t>
+  </si>
+  <si>
+    <t>2020-04-31'</t>
+  </si>
+  <si>
+    <t>2020-05-31'</t>
+  </si>
+  <si>
+    <t>2020-06-31'</t>
+  </si>
+  <si>
+    <t>2020-07-31'</t>
+  </si>
+  <si>
+    <t>2020-08-31'</t>
+  </si>
+  <si>
+    <t>2020-09-31'</t>
+  </si>
+  <si>
+    <t>2020-10-31'</t>
+  </si>
+  <si>
+    <t>2020-11-31'</t>
+  </si>
+  <si>
+    <t>2020-12-31'</t>
+  </si>
+  <si>
+    <t>2021-01-31'</t>
+  </si>
+  <si>
+    <t>2021-02-31'</t>
+  </si>
+  <si>
+    <t>2021-03-31'</t>
+  </si>
+  <si>
+    <t>2021-04-31'</t>
+  </si>
+  <si>
+    <t>2021-05-31'</t>
+  </si>
+  <si>
+    <t>2021-06-31'</t>
+  </si>
+  <si>
+    <t>2021-07-31'</t>
+  </si>
+  <si>
+    <t>2022-12-31'</t>
+  </si>
+  <si>
+    <t>2022-11-31'</t>
+  </si>
+  <si>
+    <t>2022-10-31'</t>
+  </si>
+  <si>
+    <t>2021-08-31'</t>
+  </si>
+  <si>
+    <t>2021-09-31'</t>
+  </si>
+  <si>
+    <t>2021-10-31'</t>
+  </si>
+  <si>
+    <t>2021-11-31'</t>
+  </si>
+  <si>
+    <t>2021-12-31'</t>
+  </si>
+  <si>
+    <t>2022-01-31'</t>
+  </si>
+  <si>
+    <t>2022-02-31'</t>
+  </si>
+  <si>
+    <t>2022-03-31'</t>
+  </si>
+  <si>
+    <t>2022-04-31'</t>
+  </si>
+  <si>
+    <t>2022-05-31'</t>
+  </si>
+  <si>
+    <t>2022-06-31'</t>
+  </si>
+  <si>
+    <t>2022-07-31'</t>
+  </si>
+  <si>
+    <t>2022-08-31'</t>
+  </si>
+  <si>
+    <t>2022-09-31'</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -557,132 +557,132 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <f ca="1">RANDBETWEEN(300,350)</f>
-        <v>350</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B13" ca="1" si="0">RANDBETWEEN(300,350)</f>
-        <v>347</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>324</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <f ca="1">RANDBETWEEN(330,380)</f>
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ref="B15:B25" ca="1" si="1">RANDBETWEEN(330,380)</f>
@@ -691,52 +691,52 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -745,254 +745,254 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <f ca="1">RANDBETWEEN(335,390)</f>
-        <v>341</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" ref="B27:B37" ca="1" si="2">RANDBETWEEN(335,390)</f>
-        <v>374</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>352</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>347</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>362</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>342</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
         <f ca="1">RANDBETWEEN(360,410)</f>
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" ref="B39:B49" ca="1" si="3">RANDBETWEEN(360,410)</f>
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>409</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>368</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Amount</t>
   </si>
@@ -43,148 +43,187 @@
     <t>Month</t>
   </si>
   <si>
-    <t>2019-01-31'</t>
-  </si>
-  <si>
-    <t>2019-02-31'</t>
-  </si>
-  <si>
-    <t>2019-03-31'</t>
-  </si>
-  <si>
-    <t>2019-04-31'</t>
-  </si>
-  <si>
-    <t>2019-05-31'</t>
-  </si>
-  <si>
-    <t>2019-06-31'</t>
-  </si>
-  <si>
-    <t>2019-07-31'</t>
-  </si>
-  <si>
-    <t>2019-08-31'</t>
-  </si>
-  <si>
-    <t>2019-09-31'</t>
-  </si>
-  <si>
-    <t>2019-10-31'</t>
-  </si>
-  <si>
-    <t>2019-11-31'</t>
-  </si>
-  <si>
-    <t>2019-12-31'</t>
-  </si>
-  <si>
-    <t>2020-01-31'</t>
-  </si>
-  <si>
-    <t>2020-02-31'</t>
-  </si>
-  <si>
-    <t>2020-03-31'</t>
-  </si>
-  <si>
-    <t>2020-04-31'</t>
-  </si>
-  <si>
-    <t>2020-05-31'</t>
-  </si>
-  <si>
-    <t>2020-06-31'</t>
-  </si>
-  <si>
-    <t>2020-07-31'</t>
-  </si>
-  <si>
-    <t>2020-08-31'</t>
-  </si>
-  <si>
-    <t>2020-09-31'</t>
-  </si>
-  <si>
-    <t>2020-10-31'</t>
-  </si>
-  <si>
-    <t>2020-11-31'</t>
-  </si>
-  <si>
-    <t>2020-12-31'</t>
-  </si>
-  <si>
-    <t>2021-01-31'</t>
-  </si>
-  <si>
-    <t>2021-02-31'</t>
-  </si>
-  <si>
-    <t>2021-03-31'</t>
-  </si>
-  <si>
-    <t>2021-04-31'</t>
-  </si>
-  <si>
-    <t>2021-05-31'</t>
-  </si>
-  <si>
-    <t>2021-06-31'</t>
-  </si>
-  <si>
-    <t>2021-07-31'</t>
-  </si>
-  <si>
-    <t>2022-12-31'</t>
-  </si>
-  <si>
-    <t>2022-11-31'</t>
-  </si>
-  <si>
-    <t>2022-10-31'</t>
-  </si>
-  <si>
-    <t>2021-08-31'</t>
-  </si>
-  <si>
-    <t>2021-09-31'</t>
-  </si>
-  <si>
-    <t>2021-10-31'</t>
-  </si>
-  <si>
-    <t>2021-11-31'</t>
-  </si>
-  <si>
-    <t>2021-12-31'</t>
-  </si>
-  <si>
-    <t>2022-01-31'</t>
-  </si>
-  <si>
-    <t>2022-02-31'</t>
-  </si>
-  <si>
-    <t>2022-03-31'</t>
-  </si>
-  <si>
-    <t>2022-04-31'</t>
-  </si>
-  <si>
     <t>2022-05-31'</t>
   </si>
   <si>
-    <t>2022-06-31'</t>
-  </si>
-  <si>
-    <t>2022-07-31'</t>
-  </si>
-  <si>
-    <t>2022-08-31'</t>
-  </si>
-  <si>
-    <t>2022-09-31'</t>
+    <t>2022-04-01'</t>
+  </si>
+  <si>
+    <t>2022-04-02'</t>
+  </si>
+  <si>
+    <t>2022-04-03'</t>
+  </si>
+  <si>
+    <t>2022-04-04'</t>
+  </si>
+  <si>
+    <t>2022-04-05'</t>
+  </si>
+  <si>
+    <t>2022-04-06'</t>
+  </si>
+  <si>
+    <t>2022-04-07'</t>
+  </si>
+  <si>
+    <t>2022-04-08'</t>
+  </si>
+  <si>
+    <t>2022-04-09'</t>
+  </si>
+  <si>
+    <t>2022-04-10'</t>
+  </si>
+  <si>
+    <t>2022-04-11'</t>
+  </si>
+  <si>
+    <t>2022-04-12'</t>
+  </si>
+  <si>
+    <t>2022-04-13'</t>
+  </si>
+  <si>
+    <t>2022-04-14'</t>
+  </si>
+  <si>
+    <t>2022-04-15'</t>
+  </si>
+  <si>
+    <t>2022-04-16'</t>
+  </si>
+  <si>
+    <t>2022-04-17'</t>
+  </si>
+  <si>
+    <t>2022-04-18'</t>
+  </si>
+  <si>
+    <t>2022-04-19'</t>
+  </si>
+  <si>
+    <t>2022-04-20'</t>
+  </si>
+  <si>
+    <t>2022-04-21'</t>
+  </si>
+  <si>
+    <t>2022-04-22'</t>
+  </si>
+  <si>
+    <t>2022-04-23'</t>
+  </si>
+  <si>
+    <t>2022-04-24'</t>
+  </si>
+  <si>
+    <t>2022-04-25'</t>
+  </si>
+  <si>
+    <t>2022-04-26'</t>
+  </si>
+  <si>
+    <t>2022-04-27'</t>
+  </si>
+  <si>
+    <t>2022-04-28'</t>
+  </si>
+  <si>
+    <t>2022-04-29'</t>
+  </si>
+  <si>
+    <t>2022-04-30'</t>
+  </si>
+  <si>
+    <t>2022-05-01'</t>
+  </si>
+  <si>
+    <t>2022-05-02'</t>
+  </si>
+  <si>
+    <t>2022-05-03'</t>
+  </si>
+  <si>
+    <t>2022-05-04'</t>
+  </si>
+  <si>
+    <t>2022-05-05'</t>
+  </si>
+  <si>
+    <t>2022-05-06'</t>
+  </si>
+  <si>
+    <t>2022-05-07'</t>
+  </si>
+  <si>
+    <t>2022-05-08'</t>
+  </si>
+  <si>
+    <t>2022-05-09'</t>
+  </si>
+  <si>
+    <t>2022-05-10'</t>
+  </si>
+  <si>
+    <t>2022-05-11'</t>
+  </si>
+  <si>
+    <t>2022-05-12'</t>
+  </si>
+  <si>
+    <t>2022-05-13'</t>
+  </si>
+  <si>
+    <t>2022-05-14'</t>
+  </si>
+  <si>
+    <t>2022-05-15'</t>
+  </si>
+  <si>
+    <t>2022-05-16'</t>
+  </si>
+  <si>
+    <t>2022-05-17'</t>
+  </si>
+  <si>
+    <t>2022-05-18'</t>
+  </si>
+  <si>
+    <t>2022-05-19'</t>
+  </si>
+  <si>
+    <t>2022-05-20'</t>
+  </si>
+  <si>
+    <t>2022-05-21'</t>
+  </si>
+  <si>
+    <t>2022-05-23'</t>
+  </si>
+  <si>
+    <t>2022-05-22'</t>
+  </si>
+  <si>
+    <t>2022-05-24'</t>
+  </si>
+  <si>
+    <t>2022-05-25'</t>
+  </si>
+  <si>
+    <t>2022-05-26'</t>
+  </si>
+  <si>
+    <t>2022-05-27'</t>
+  </si>
+  <si>
+    <t>2022-05-28'</t>
+  </si>
+  <si>
+    <t>2022-05-29'</t>
+  </si>
+  <si>
+    <t>2022-05-30'</t>
   </si>
 </sst>
 </file>
@@ -543,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -565,124 +604,124 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <f ca="1">RANDBETWEEN(300,350)</f>
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B13" ca="1" si="0">RANDBETWEEN(300,350)</f>
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>346</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <f ca="1">RANDBETWEEN(330,380)</f>
-        <v>339</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ref="B15:B25" ca="1" si="1">RANDBETWEEN(330,380)</f>
@@ -691,146 +730,146 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>378</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>344</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>364</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>342</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <f ca="1">RANDBETWEEN(335,390)</f>
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" ref="B27:B37" ca="1" si="2">RANDBETWEEN(335,390)</f>
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>383</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>351</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
@@ -839,161 +878,344 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>389</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <f ca="1">RANDBETWEEN(360,410)</f>
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" ref="B39:B49" ca="1" si="3">RANDBETWEEN(360,410)</f>
-        <v>407</v>
+        <f t="shared" ref="B39:B65" ca="1" si="3">RANDBETWEEN(360,410)</f>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>410</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>409</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>364</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>361</v>
-      </c>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <f ca="1">RANDBETWEEN(375,420)</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" ref="B51:B65" ca="1" si="4">RANDBETWEEN(375,420)</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A78" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>2022-05-31'</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>2022-05-30'</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -596,7 +596,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -604,16 +604,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <f ca="1">RANDBETWEEN(300,350)</f>
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B13" ca="1" si="0">RANDBETWEEN(300,350)</f>
@@ -622,169 +622,169 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>314</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>344</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <f ca="1">RANDBETWEEN(330,380)</f>
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ref="B15:B25" ca="1" si="1">RANDBETWEEN(330,380)</f>
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -793,83 +793,83 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>330</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>368</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>346</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <f ca="1">RANDBETWEEN(335,390)</f>
-        <v>378</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" ref="B27:B37" ca="1" si="2">RANDBETWEEN(335,390)</f>
-        <v>340</v>
+        <f t="shared" ref="B27:B34" ca="1" si="2">RANDBETWEEN(335,390)</f>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>374</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>362</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
@@ -878,343 +878,316 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>377</v>
+        <f ca="1">RANDBETWEEN(360,410)</f>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>353</v>
+        <f t="shared" ref="B36:B46" ca="1" si="3">RANDBETWEEN(360,410)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>340</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
-        <f ca="1">RANDBETWEEN(360,410)</f>
-        <v>379</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" ref="B39:B65" ca="1" si="3">RANDBETWEEN(360,410)</f>
-        <v>365</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>369</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>365</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>408</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>377</v>
+        <f ca="1">RANDBETWEEN(375,420)</f>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>393</v>
+        <f t="shared" ref="B48:B62" ca="1" si="4">RANDBETWEEN(375,420)</f>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>392</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1">
-        <f ca="1">RANDBETWEEN(375,420)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" ref="B51:B65" ca="1" si="4">RANDBETWEEN(375,420)</f>
-        <v>414</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>411</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>376</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>380</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>408</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>398</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>401</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="2"/>
     </row>
   </sheetData>

--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -35,195 +35,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>2022-05-31'</t>
-  </si>
-  <si>
-    <t>2022-04-01'</t>
-  </si>
-  <si>
-    <t>2022-04-02'</t>
-  </si>
-  <si>
-    <t>2022-04-03'</t>
-  </si>
-  <si>
-    <t>2022-04-04'</t>
-  </si>
-  <si>
-    <t>2022-04-05'</t>
-  </si>
-  <si>
-    <t>2022-04-06'</t>
-  </si>
-  <si>
-    <t>2022-04-07'</t>
-  </si>
-  <si>
-    <t>2022-04-08'</t>
-  </si>
-  <si>
-    <t>2022-04-09'</t>
-  </si>
-  <si>
-    <t>2022-04-10'</t>
-  </si>
-  <si>
-    <t>2022-04-11'</t>
-  </si>
-  <si>
-    <t>2022-04-12'</t>
-  </si>
-  <si>
-    <t>2022-04-13'</t>
-  </si>
-  <si>
-    <t>2022-04-14'</t>
-  </si>
-  <si>
-    <t>2022-04-15'</t>
-  </si>
-  <si>
-    <t>2022-04-16'</t>
-  </si>
-  <si>
-    <t>2022-04-17'</t>
-  </si>
-  <si>
-    <t>2022-04-18'</t>
-  </si>
-  <si>
-    <t>2022-04-19'</t>
-  </si>
-  <si>
-    <t>2022-04-20'</t>
-  </si>
-  <si>
-    <t>2022-04-21'</t>
-  </si>
-  <si>
-    <t>2022-04-22'</t>
-  </si>
-  <si>
-    <t>2022-04-23'</t>
-  </si>
-  <si>
-    <t>2022-04-24'</t>
-  </si>
-  <si>
-    <t>2022-04-25'</t>
-  </si>
-  <si>
-    <t>2022-04-26'</t>
-  </si>
-  <si>
-    <t>2022-04-27'</t>
-  </si>
-  <si>
-    <t>2022-04-28'</t>
-  </si>
-  <si>
-    <t>2022-04-29'</t>
-  </si>
-  <si>
-    <t>2022-04-30'</t>
-  </si>
-  <si>
-    <t>2022-05-01'</t>
-  </si>
-  <si>
-    <t>2022-05-02'</t>
-  </si>
-  <si>
-    <t>2022-05-03'</t>
-  </si>
-  <si>
-    <t>2022-05-04'</t>
-  </si>
-  <si>
-    <t>2022-05-05'</t>
-  </si>
-  <si>
-    <t>2022-05-06'</t>
-  </si>
-  <si>
-    <t>2022-05-07'</t>
-  </si>
-  <si>
-    <t>2022-05-08'</t>
-  </si>
-  <si>
-    <t>2022-05-09'</t>
-  </si>
-  <si>
-    <t>2022-05-10'</t>
-  </si>
-  <si>
-    <t>2022-05-11'</t>
-  </si>
-  <si>
-    <t>2022-05-12'</t>
-  </si>
-  <si>
-    <t>2022-05-13'</t>
-  </si>
-  <si>
-    <t>2022-05-14'</t>
-  </si>
-  <si>
-    <t>2022-05-15'</t>
-  </si>
-  <si>
-    <t>2022-05-16'</t>
-  </si>
-  <si>
-    <t>2022-05-17'</t>
-  </si>
-  <si>
-    <t>2022-05-18'</t>
-  </si>
-  <si>
-    <t>2022-05-19'</t>
-  </si>
-  <si>
-    <t>2022-05-20'</t>
-  </si>
-  <si>
-    <t>2022-05-21'</t>
-  </si>
-  <si>
-    <t>2022-05-23'</t>
-  </si>
-  <si>
-    <t>2022-05-22'</t>
-  </si>
-  <si>
-    <t>2022-05-24'</t>
-  </si>
-  <si>
-    <t>2022-05-25'</t>
-  </si>
-  <si>
-    <t>2022-05-26'</t>
-  </si>
-  <si>
-    <t>2022-05-27'</t>
-  </si>
-  <si>
-    <t>2022-05-28'</t>
-  </si>
-  <si>
-    <t>2022-05-29'</t>
-  </si>
-  <si>
-    <t>2022-05-30'</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>2022-08-01'</t>
+  </si>
+  <si>
+    <t>2022-08-02'</t>
+  </si>
+  <si>
+    <t>2022-08-03'</t>
+  </si>
+  <si>
+    <t>2022-08-04'</t>
+  </si>
+  <si>
+    <t>2022-08-05'</t>
+  </si>
+  <si>
+    <t>2022-08-06'</t>
+  </si>
+  <si>
+    <t>2022-08-07'</t>
+  </si>
+  <si>
+    <t>2022-08-08'</t>
+  </si>
+  <si>
+    <t>2022-08-09'</t>
+  </si>
+  <si>
+    <t>2022-08-10'</t>
+  </si>
+  <si>
+    <t>2022-08-11'</t>
+  </si>
+  <si>
+    <t>2022-08-12'</t>
+  </si>
+  <si>
+    <t>2022-08-13'</t>
+  </si>
+  <si>
+    <t>2022-08-14'</t>
+  </si>
+  <si>
+    <t>2022-08-15'</t>
+  </si>
+  <si>
+    <t>2022-08-16'</t>
+  </si>
+  <si>
+    <t>2022-08-17'</t>
+  </si>
+  <si>
+    <t>2022-08-18'</t>
+  </si>
+  <si>
+    <t>2022-08-19'</t>
+  </si>
+  <si>
+    <t>2022-08-20'</t>
+  </si>
+  <si>
+    <t>2022-08-21'</t>
+  </si>
+  <si>
+    <t>2022-08-22'</t>
+  </si>
+  <si>
+    <t>2022-08-23'</t>
+  </si>
+  <si>
+    <t>2022-08-24'</t>
+  </si>
+  <si>
+    <t>2022-08-25'</t>
+  </si>
+  <si>
+    <t>2022-08-26'</t>
+  </si>
+  <si>
+    <t>2022-08-27'</t>
+  </si>
+  <si>
+    <t>2022-08-28'</t>
+  </si>
+  <si>
+    <t>2022-08-29'</t>
+  </si>
+  <si>
+    <t>2022-08-30'</t>
+  </si>
+  <si>
+    <t>2022-08-31'</t>
+  </si>
+  <si>
+    <t>2022-09-01'</t>
+  </si>
+  <si>
+    <t>2022-09-02'</t>
+  </si>
+  <si>
+    <t>2022-09-03'</t>
+  </si>
+  <si>
+    <t>2022-09-04'</t>
+  </si>
+  <si>
+    <t>2022-09-05'</t>
+  </si>
+  <si>
+    <t>2022-09-06'</t>
+  </si>
+  <si>
+    <t>2022-09-07'</t>
+  </si>
+  <si>
+    <t>2022-09-08'</t>
+  </si>
+  <si>
+    <t>2022-09-09'</t>
+  </si>
+  <si>
+    <t>2022-09-10'</t>
+  </si>
+  <si>
+    <t>2022-09-11'</t>
+  </si>
+  <si>
+    <t>2022-09-12'</t>
+  </si>
+  <si>
+    <t>2022-09-13'</t>
+  </si>
+  <si>
+    <t>2022-09-14'</t>
+  </si>
+  <si>
+    <t>2022-09-15'</t>
+  </si>
+  <si>
+    <t>2022-09-16'</t>
+  </si>
+  <si>
+    <t>2022-09-17'</t>
   </si>
 </sst>
 </file>
@@ -584,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B62"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -596,10 +557,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -607,8 +568,8 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <f ca="1">RANDBETWEEN(300,350)</f>
-        <v>335</v>
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -616,8 +577,8 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B13" ca="1" si="0">RANDBETWEEN(300,350)</f>
-        <v>303</v>
+        <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -626,7 +587,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>341</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
@@ -635,7 +596,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>309</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
@@ -644,7 +605,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>338</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
@@ -653,7 +614,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>316</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
@@ -662,7 +623,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>327</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
@@ -671,7 +632,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>322</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
@@ -680,7 +641,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
@@ -689,7 +650,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>300</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
@@ -698,7 +659,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>304</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
@@ -707,7 +668,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>316</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
@@ -715,8 +676,8 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <f ca="1">RANDBETWEEN(330,380)</f>
-        <v>350</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
@@ -724,8 +685,8 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ref="B15:B25" ca="1" si="1">RANDBETWEEN(330,380)</f>
-        <v>357</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -733,8 +694,8 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>355</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -742,8 +703,8 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>358</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -751,8 +712,8 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>338</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
@@ -760,8 +721,8 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
@@ -769,8 +730,8 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>343</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
@@ -778,8 +739,8 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>365</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
@@ -787,8 +748,8 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>335</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -796,8 +757,8 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>378</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
@@ -805,8 +766,8 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>341</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
@@ -814,8 +775,8 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>380</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
@@ -823,8 +784,8 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <f ca="1">RANDBETWEEN(335,390)</f>
-        <v>347</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
@@ -832,8 +793,8 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" ref="B27:B34" ca="1" si="2">RANDBETWEEN(335,390)</f>
-        <v>359</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
@@ -841,8 +802,8 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>353</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
@@ -850,8 +811,8 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>348</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -859,8 +820,8 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>370</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
@@ -868,8 +829,8 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>338</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
@@ -877,8 +838,8 @@
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>377</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
@@ -886,8 +847,8 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>382</v>
+        <f ca="1">RANDBETWEEN(60,115)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
@@ -895,8 +856,8 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>353</v>
+        <f t="shared" ref="B34:B49" ca="1" si="1">RANDBETWEEN(60,115)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
@@ -904,8 +865,8 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <f ca="1">RANDBETWEEN(360,410)</f>
-        <v>395</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
@@ -913,8 +874,8 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" ref="B36:B46" ca="1" si="3">RANDBETWEEN(360,410)</f>
-        <v>363</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
@@ -922,8 +883,8 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
@@ -931,8 +892,8 @@
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>392</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
@@ -940,8 +901,8 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>372</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
@@ -949,8 +910,8 @@
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>386</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
@@ -958,8 +919,8 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
@@ -967,8 +928,8 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>409</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
@@ -976,8 +937,8 @@
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>394</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
@@ -985,8 +946,8 @@
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>387</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
@@ -994,8 +955,8 @@
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>367</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
@@ -1003,8 +964,8 @@
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>384</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
@@ -1012,8 +973,8 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <f ca="1">RANDBETWEEN(375,420)</f>
-        <v>387</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
@@ -1021,8 +982,8 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" ref="B48:B62" ca="1" si="4">RANDBETWEEN(375,420)</f>
-        <v>392</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
@@ -1030,126 +991,48 @@
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>403</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>396</v>
-      </c>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>405</v>
-      </c>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>381</v>
-      </c>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>396</v>
-      </c>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>390</v>
-      </c>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>419</v>
-      </c>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>380</v>
-      </c>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>388</v>
-      </c>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>396</v>
-      </c>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>409</v>
-      </c>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>398</v>
-      </c>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>404</v>
-      </c>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>391</v>
-      </c>
+      <c r="A62" s="2"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="2"/>

--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -555,483 +555,485 @@
     <col min="2" max="2" width="8.9375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B4">
+        <v>98</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B6">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B7">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B8">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B9">
+        <v>88</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B11">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B12">
+        <v>91</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B13">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B14">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B15">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B16">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B17">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B18">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B19">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B20">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B21">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B22">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B23">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B24">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B25">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B26">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B27">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B28">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B29">
+        <v>56</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B30">
+        <v>88</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B31">
+        <v>87</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B32">
+        <v>82</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
-        <f ca="1">RANDBETWEEN(60,115)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B33">
+        <v>63</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
-        <f t="shared" ref="B34:B49" ca="1" si="1">RANDBETWEEN(60,115)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B34">
+        <v>91</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B35">
+        <v>111</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B36">
+        <v>92</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B37">
+        <v>114</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B38">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B39">
+        <v>91</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B40">
+        <v>113</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B41">
+        <v>68</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B42">
+        <v>74</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B43">
+        <v>77</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B44">
+        <v>94</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B45">
+        <v>113</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B46">
+        <v>110</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B47">
+        <v>86</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B48">
+        <v>89</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B49">
+        <v>73</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="2"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
@@ -1074,6 +1076,9 @@
       <c r="A78" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="D2:E49">
+    <sortCondition ref="E2:E49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>